--- a/excel/collective/zestawy_dla_uczniow/zestaw_027.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_027.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>ZESTAW ZADAŃ NR 27 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Hanna Zawadzka</t>
-  </si>
-  <si>
-    <t>Mikołaj Kowalski</t>
-  </si>
-  <si>
-    <t>Natalia Sikorska</t>
-  </si>
-  <si>
-    <t>Aleksander Wojciechowski</t>
-  </si>
-  <si>
-    <t>Jakub Kozłowski</t>
+    <t>Filip Dąbrowski</t>
+  </si>
+  <si>
+    <t>Natalia Urbaniak</t>
+  </si>
+  <si>
+    <t>Mikołaj Krawczyk</t>
+  </si>
+  <si>
+    <t>Filip Mazur</t>
+  </si>
+  <si>
+    <t>Filip Wiśniewski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,37 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>5,80</t>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>1,30</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>2,00</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>0,90</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>5,00</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>1,50</t>
   </si>
   <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>14,60</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>2,40</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>1,80</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>0,80</t>
+    <t>14,00</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -217,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>30,22</t>
+    <t>10,73</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>15,32</t>
+    <t>28,86</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>10,62</t>
+    <t>20,42</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>8,29</t>
+    <t>26,05</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>1,09</t>
+    <t>10,42</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -250,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>23,24</t>
-  </si>
-  <si>
-    <t>16,45</t>
-  </si>
-  <si>
-    <t>5,13</t>
-  </si>
-  <si>
-    <t>4,13</t>
-  </si>
-  <si>
-    <t>7,50</t>
+    <t>2,57</t>
+  </si>
+  <si>
+    <t>18,40</t>
+  </si>
+  <si>
+    <t>21,81</t>
+  </si>
+  <si>
+    <t>7,43</t>
+  </si>
+  <si>
+    <t>19,92</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -271,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>18,38</t>
-  </si>
-  <si>
-    <t>15,29</t>
-  </si>
-  <si>
-    <t>25,07</t>
-  </si>
-  <si>
-    <t>22,98</t>
-  </si>
-  <si>
-    <t>6,76</t>
+    <t>23,31</t>
+  </si>
+  <si>
+    <t>19,98</t>
+  </si>
+  <si>
+    <t>1,15</t>
+  </si>
+  <si>
+    <t>9,82</t>
+  </si>
+  <si>
+    <t>10,56</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -337,43 +340,46 @@
     <t>Czy pasek?</t>
   </si>
   <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Urbaniak</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Maciejewska</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Kamiński</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
     <t>Emilia</t>
   </si>
   <si>
-    <t>Jaworska</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Rogalska</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Bednarska</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Szymański</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Piotrowski</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
+  </si>
+  <si>
+    <t>Lis</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -409,166 +415,121 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Emilia Wójcik</t>
-  </si>
-  <si>
-    <t>21.10.2001</t>
-  </si>
-  <si>
-    <t>11 146,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Kamiński</t>
-  </si>
-  <si>
-    <t>07.04.1977</t>
-  </si>
-  <si>
-    <t>4 539,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Sadowska</t>
-  </si>
-  <si>
-    <t>27.07.2002</t>
-  </si>
-  <si>
-    <t>14 939,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Król</t>
-  </si>
-  <si>
-    <t>26.05.2004</t>
-  </si>
-  <si>
-    <t>13 004,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Szymański</t>
-  </si>
-  <si>
-    <t>16.09.2002</t>
-  </si>
-  <si>
-    <t>7 042,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Woźniak</t>
-  </si>
-  <si>
-    <t>10.10.1998</t>
-  </si>
-  <si>
-    <t>9 750,00 zł</t>
+    <t>Lena Górska</t>
+  </si>
+  <si>
+    <t>04.08.1986</t>
+  </si>
+  <si>
+    <t>7 761,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Krawczyk</t>
+  </si>
+  <si>
+    <t>12.12.1976</t>
+  </si>
+  <si>
+    <t>8 072,00 zł</t>
   </si>
   <si>
     <t>Oliwia Olszewska</t>
   </si>
   <si>
-    <t>07.04.1986</t>
-  </si>
-  <si>
-    <t>5 772,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Krawczyk</t>
-  </si>
-  <si>
-    <t>13.11.1992</t>
-  </si>
-  <si>
-    <t>3 218,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Zieliński</t>
-  </si>
-  <si>
-    <t>11.08.2004</t>
-  </si>
-  <si>
-    <t>9 843,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Lis</t>
-  </si>
-  <si>
-    <t>03.01.2005</t>
-  </si>
-  <si>
-    <t>8 359,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Borkowska</t>
-  </si>
-  <si>
-    <t>16.08.1999</t>
-  </si>
-  <si>
-    <t>5 566,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Rogalska</t>
-  </si>
-  <si>
-    <t>20.03.1999</t>
-  </si>
-  <si>
-    <t>11 180,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Wojciechowski</t>
-  </si>
-  <si>
-    <t>10.05.1995</t>
-  </si>
-  <si>
-    <t>14 226,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Kowalski</t>
-  </si>
-  <si>
-    <t>02.10.1993</t>
-  </si>
-  <si>
-    <t>6 909,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Kaczmarek</t>
-  </si>
-  <si>
-    <t>04.08.1994</t>
-  </si>
-  <si>
-    <t>2 887,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Sikorska</t>
-  </si>
-  <si>
-    <t>18.08.1985</t>
-  </si>
-  <si>
-    <t>3 010,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Rogalska</t>
-  </si>
-  <si>
-    <t>11.06.1994</t>
-  </si>
-  <si>
-    <t>9 575,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Jankowski</t>
-  </si>
-  <si>
-    <t>09.10.1991</t>
-  </si>
-  <si>
-    <t>10 826,00 zł</t>
+    <t>26.09.1988</t>
+  </si>
+  <si>
+    <t>8 550,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Mazur</t>
+  </si>
+  <si>
+    <t>09.12.1983</t>
+  </si>
+  <si>
+    <t>7 694,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Piotrowski</t>
+  </si>
+  <si>
+    <t>07.09.1988</t>
+  </si>
+  <si>
+    <t>5 015,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Zieliński</t>
+  </si>
+  <si>
+    <t>05.10.1998</t>
+  </si>
+  <si>
+    <t>12 256,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Lis</t>
+  </si>
+  <si>
+    <t>17.10.1980</t>
+  </si>
+  <si>
+    <t>7 191,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Wójcik</t>
+  </si>
+  <si>
+    <t>28.08.1996</t>
+  </si>
+  <si>
+    <t>3 297,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Nowak</t>
+  </si>
+  <si>
+    <t>22.10.1977</t>
+  </si>
+  <si>
+    <t>14 661,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Grabowski</t>
+  </si>
+  <si>
+    <t>17.07.1977</t>
+  </si>
+  <si>
+    <t>8 111,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Piekarska</t>
+  </si>
+  <si>
+    <t>01.01.1991</t>
+  </si>
+  <si>
+    <t>6 554,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Zieliński</t>
+  </si>
+  <si>
+    <t>26.05.1991</t>
+  </si>
+  <si>
+    <t>13 706,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Wójcik</t>
+  </si>
+  <si>
+    <t>25.09.1987</t>
+  </si>
+  <si>
+    <t>9 145,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -640,304 +601,328 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 036,00 zł</t>
-  </si>
-  <si>
-    <t>1 440,00 zł</t>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 375,00 zł</t>
+  </si>
+  <si>
+    <t>1 719,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 428,00 zł</t>
+  </si>
+  <si>
+    <t>1 585,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 031,00 zł</t>
+  </si>
+  <si>
+    <t>1 330,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 317,00 zł</t>
+  </si>
+  <si>
+    <t>1 765,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 282,00 zł</t>
+  </si>
+  <si>
+    <t>1 679,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 351,00 zł</t>
+  </si>
+  <si>
+    <t>1 527,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>556,00 zł</t>
+  </si>
+  <si>
+    <t>651,00 zł</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 326,00 zł</t>
+  </si>
+  <si>
+    <t>1 618,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 427,00 zł</t>
+  </si>
+  <si>
+    <t>1 627,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>1 261,00 zł</t>
+  </si>
+  <si>
+    <t>1 475,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>917,00 zł</t>
+  </si>
+  <si>
+    <t>1 073,00 zł</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>616,00 zł</t>
+  </si>
+  <si>
+    <t>795,00 zł</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 372,00 zł</t>
+  </si>
+  <si>
+    <t>1 509,00 zł</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>924,00 zł</t>
+  </si>
+  <si>
+    <t>1 164,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>926,00 zł</t>
+  </si>
+  <si>
+    <t>1 222,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 484,00 zł</t>
+  </si>
+  <si>
+    <t>1 692,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 195,00 zł</t>
+  </si>
+  <si>
+    <t>1 637,00 zł</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 390,00 zł</t>
+  </si>
+  <si>
+    <t>1 779,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>1 148,00 zł</t>
+  </si>
+  <si>
+    <t>1 504,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>800,00 zł</t>
+  </si>
+  <si>
+    <t>1 024,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 492,00 zł</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>1 112,00 zł</t>
+  </si>
+  <si>
+    <t>1 546,00 zł</t>
+  </si>
+  <si>
+    <t>1 290,00 zł</t>
+  </si>
+  <si>
+    <t>1 445,00 zł</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>634,00 zł</t>
+  </si>
+  <si>
+    <t>742,00 zł</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>1 485,00 zł</t>
+  </si>
+  <si>
+    <t>1 752,00 zł</t>
   </si>
   <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>598,00 zł</t>
-  </si>
-  <si>
-    <t>765,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 128,00 zł</t>
-  </si>
-  <si>
-    <t>1 297,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 335,00 zł</t>
-  </si>
-  <si>
-    <t>1 522,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 208,00 zł</t>
-  </si>
-  <si>
-    <t>1 643,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 352,00 zł</t>
-  </si>
-  <si>
-    <t>1 879,00 zł</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 613,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 043,00 zł</t>
-  </si>
-  <si>
-    <t>1 210,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>884,00 zł</t>
-  </si>
-  <si>
-    <t>1 034,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>1 215,00 zł</t>
-  </si>
-  <si>
-    <t>1 677,00 zł</t>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>857,00 zł</t>
+  </si>
+  <si>
+    <t>943,00 zł</t>
   </si>
   <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>1 424,00 zł</t>
-  </si>
-  <si>
-    <t>1 723,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>663,00 zł</t>
-  </si>
-  <si>
-    <t>928,00 zł</t>
-  </si>
-  <si>
-    <t>1 129,00 zł</t>
-  </si>
-  <si>
-    <t>1 276,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>584,00 zł</t>
-  </si>
-  <si>
-    <t>707,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>635,00 zł</t>
-  </si>
-  <si>
-    <t>775,00 zł</t>
-  </si>
-  <si>
-    <t>732,00 zł</t>
-  </si>
-  <si>
-    <t>856,00 zł</t>
-  </si>
-  <si>
-    <t>532,00 zł</t>
-  </si>
-  <si>
-    <t>739,00 zł</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 048,00 zł</t>
-  </si>
-  <si>
-    <t>1 362,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>982,00 zł</t>
-  </si>
-  <si>
-    <t>1 336,00 zł</t>
-  </si>
-  <si>
-    <t>700,00 zł</t>
-  </si>
-  <si>
-    <t>917,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>1 088,00 zł</t>
-  </si>
-  <si>
-    <t>1 240,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 437,00 zł</t>
-  </si>
-  <si>
-    <t>1 681,00 zł</t>
-  </si>
-  <si>
-    <t>1 408,00 zł</t>
-  </si>
-  <si>
-    <t>1 718,00 zł</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 238,00 zł</t>
-  </si>
-  <si>
-    <t>1 387,00 zł</t>
-  </si>
-  <si>
-    <t>1 367,00 zł</t>
-  </si>
-  <si>
-    <t>1 558,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
-    <t>1 093,00 zł</t>
-  </si>
-  <si>
-    <t>1 410,00 zł</t>
-  </si>
-  <si>
-    <t>1 055,00 zł</t>
-  </si>
-  <si>
-    <t>1 403,00 zł</t>
-  </si>
-  <si>
-    <t>1 027,00 zł</t>
-  </si>
-  <si>
-    <t>1 325,00 zł</t>
-  </si>
-  <si>
-    <t>opolskie</t>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 498,00 zł</t>
+  </si>
+  <si>
+    <t>1 753,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1494,19 +1479,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>6</v>
       </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1515,19 +1500,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
       <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
         <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1539,16 +1524,16 @@
         <v>6</v>
       </c>
       <c r="C19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1560,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
@@ -1569,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1578,19 +1563,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1599,19 +1584,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
         <v>6</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1620,19 +1605,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="C23" s="3">
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
         <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1641,19 +1626,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1662,16 +1647,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
         <v>2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
       </c>
       <c r="F25" s="3">
         <v>6</v>
@@ -1683,19 +1668,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
         <v>5</v>
       </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
       <c r="E26" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1704,19 +1689,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3">
         <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3">
-        <v>5</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1728,13 +1713,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
         <v>5</v>
@@ -1859,7 +1844,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1874,7 +1859,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1886,7 +1871,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3">
         <v>7</v>
@@ -1898,13 +1883,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1913,13 +1898,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1928,13 +1913,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1943,7 +1928,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1978,7 +1963,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2003,27 +1988,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2045,61 +2030,61 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2107,7 +2092,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -2119,7 +2104,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2141,61 +2126,61 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2203,7 +2188,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -2215,7 +2200,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2237,73 +2222,73 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2325,10 +2310,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A21" sqref="A21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2349,53 +2334,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2407,7 +2392,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2416,40 +2401,40 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
         <v>5</v>
       </c>
       <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
         <v>5</v>
@@ -2460,31 +2445,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
         <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
       </c>
       <c r="I13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2492,19 +2477,19 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
@@ -2513,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2524,31 +2509,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
         <v>6</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2556,16 +2541,16 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
         <v>6</v>
@@ -2574,13 +2559,13 @@
         <v>6</v>
       </c>
       <c r="H16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3">
         <v>4</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>3</v>
-      </c>
-      <c r="J16" s="3">
-        <v>6</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2594,16 +2579,16 @@
         <v>116</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" s="3">
         <v>6</v>
@@ -2612,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2620,54 +2605,70 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
         <v>6</v>
       </c>
       <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2681,11 +2682,27 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2698,10 +2715,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:B34"/>
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2713,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2723,265 +2740,210 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B27" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="B28" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
+      <c r="B29" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2999,10 +2961,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A46" sqref="A46:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3018,7 +2980,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3028,75 +2990,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3104,22 +3066,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3127,22 +3089,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3150,22 +3112,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3173,22 +3135,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3196,22 +3158,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3219,22 +3181,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3242,22 +3204,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3265,22 +3227,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3288,22 +3250,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3311,22 +3273,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3334,22 +3296,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3357,22 +3319,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3380,22 +3342,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3403,22 +3365,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3426,22 +3388,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3449,22 +3411,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3472,22 +3434,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3495,22 +3457,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3518,22 +3480,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3541,22 +3503,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3564,22 +3526,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>286</v>
+        <v>197</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3587,22 +3549,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3610,22 +3572,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3633,22 +3595,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3656,22 +3618,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3679,22 +3641,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3702,90 +3664,67 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
         <v>301</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>183</v>
+      <c r="B46" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>310</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_027.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_027.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>ZESTAW ZADAŃ NR 27 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 27 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,30</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>2,00</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>0,90</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>5,00</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>14,00</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>10,73</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>28,86</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>20,42</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>26,05</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>10,42</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>2,57</t>
-  </si>
-  <si>
-    <t>18,40</t>
-  </si>
-  <si>
-    <t>21,81</t>
-  </si>
-  <si>
-    <t>7,43</t>
-  </si>
-  <si>
-    <t>19,92</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>23,31</t>
-  </si>
-  <si>
-    <t>19,98</t>
-  </si>
-  <si>
-    <t>1,15</t>
-  </si>
-  <si>
-    <t>9,82</t>
-  </si>
-  <si>
-    <t>10,56</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -421,117 +343,78 @@
     <t>04.08.1986</t>
   </si>
   <si>
-    <t>7 761,00 zł</t>
-  </si>
-  <si>
     <t>Jan Krawczyk</t>
   </si>
   <si>
     <t>12.12.1976</t>
   </si>
   <si>
-    <t>8 072,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Olszewska</t>
   </si>
   <si>
     <t>26.09.1988</t>
   </si>
   <si>
-    <t>8 550,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Mazur</t>
   </si>
   <si>
     <t>09.12.1983</t>
   </si>
   <si>
-    <t>7 694,00 zł</t>
-  </si>
-  <si>
     <t>Jan Piotrowski</t>
   </si>
   <si>
     <t>07.09.1988</t>
   </si>
   <si>
-    <t>5 015,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Zieliński</t>
   </si>
   <si>
     <t>05.10.1998</t>
   </si>
   <si>
-    <t>12 256,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Lis</t>
   </si>
   <si>
     <t>17.10.1980</t>
   </si>
   <si>
-    <t>7 191,00 zł</t>
-  </si>
-  <si>
     <t>Maja Wójcik</t>
   </si>
   <si>
     <t>28.08.1996</t>
   </si>
   <si>
-    <t>3 297,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Nowak</t>
   </si>
   <si>
     <t>22.10.1977</t>
   </si>
   <si>
-    <t>14 661,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Grabowski</t>
   </si>
   <si>
     <t>17.07.1977</t>
   </si>
   <si>
-    <t>8 111,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Piekarska</t>
   </si>
   <si>
     <t>01.01.1991</t>
   </si>
   <si>
-    <t>6 554,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Zieliński</t>
   </si>
   <si>
     <t>26.05.1991</t>
   </si>
   <si>
-    <t>13 706,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Wójcik</t>
   </si>
   <si>
     <t>25.09.1987</t>
   </si>
   <si>
-    <t>9 145,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -544,9 +427,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -607,12 +487,6 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 375,00 zł</t>
-  </si>
-  <si>
-    <t>1 719,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -625,12 +499,6 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 428,00 zł</t>
-  </si>
-  <si>
-    <t>1 585,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -640,12 +508,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 031,00 zł</t>
-  </si>
-  <si>
-    <t>1 330,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -655,12 +517,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 317,00 zł</t>
-  </si>
-  <si>
-    <t>1 765,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -670,12 +526,6 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 282,00 zł</t>
-  </si>
-  <si>
-    <t>1 679,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -688,12 +538,6 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 351,00 zł</t>
-  </si>
-  <si>
-    <t>1 527,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -706,24 +550,12 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>556,00 zł</t>
-  </si>
-  <si>
-    <t>651,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 326,00 zł</t>
-  </si>
-  <si>
-    <t>1 618,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -733,12 +565,6 @@
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 427,00 zł</t>
-  </si>
-  <si>
-    <t>1 627,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -748,168 +574,69 @@
     <t>kwiecień</t>
   </si>
   <si>
-    <t>1 261,00 zł</t>
-  </si>
-  <si>
-    <t>1 475,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>917,00 zł</t>
-  </si>
-  <si>
-    <t>1 073,00 zł</t>
-  </si>
-  <si>
     <t>łódzkie</t>
   </si>
   <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>616,00 zł</t>
-  </si>
-  <si>
-    <t>795,00 zł</t>
-  </si>
-  <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 372,00 zł</t>
-  </si>
-  <si>
-    <t>1 509,00 zł</t>
-  </si>
-  <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>924,00 zł</t>
-  </si>
-  <si>
-    <t>1 164,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
-    <t>926,00 zł</t>
-  </si>
-  <si>
-    <t>1 222,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 484,00 zł</t>
-  </si>
-  <si>
-    <t>1 692,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 195,00 zł</t>
-  </si>
-  <si>
-    <t>1 637,00 zł</t>
-  </si>
-  <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 390,00 zł</t>
-  </si>
-  <si>
-    <t>1 779,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>1 148,00 zł</t>
-  </si>
-  <si>
-    <t>1 504,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>800,00 zł</t>
-  </si>
-  <si>
-    <t>1 024,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 492,00 zł</t>
-  </si>
-  <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 112,00 zł</t>
-  </si>
-  <si>
-    <t>1 546,00 zł</t>
-  </si>
-  <si>
-    <t>1 290,00 zł</t>
-  </si>
-  <si>
-    <t>1 445,00 zł</t>
-  </si>
-  <si>
     <t>pomorskie</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>634,00 zł</t>
-  </si>
-  <si>
-    <t>742,00 zł</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>1 485,00 zł</t>
-  </si>
-  <si>
-    <t>1 752,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>857,00 zł</t>
-  </si>
-  <si>
-    <t>943,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -917,12 +644,6 @@
   </si>
   <si>
     <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 498,00 zł</t>
-  </si>
-  <si>
-    <t>1 753,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -944,7 +665,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1001,14 +724,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1019,8 +742,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1051,30 +774,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,7 +1101,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1452,25 +1176,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1493,7 +1217,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1514,7 +1238,7 @@
       <c r="F18" s="3">
         <v>6</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1535,7 +1259,7 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1556,7 +1280,7 @@
       <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1577,7 +1301,7 @@
       <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1598,7 +1322,7 @@
       <c r="F22" s="3">
         <v>4</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1619,7 +1343,7 @@
       <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1640,7 +1364,7 @@
       <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1661,7 +1385,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1682,7 +1406,7 @@
       <c r="F26" s="3">
         <v>5</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1703,7 +1427,7 @@
       <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1724,27 +1448,17 @@
       <c r="F28" s="3">
         <v>5</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1778,7 +1492,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1798,7 +1512,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1808,29 +1522,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1838,99 +1552,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.3</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.9</v>
       </c>
       <c r="D15" s="3">
         <v>7</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.5</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>14</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1963,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1988,113 +1702,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>10.73</v>
       </c>
       <c r="C15" s="3">
         <v>19</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>28.86</v>
       </c>
       <c r="C16" s="3">
         <v>50</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>20.42</v>
       </c>
       <c r="C17" s="3">
         <v>43</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>26.050000000000001</v>
       </c>
       <c r="C18" s="3">
         <v>44</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>10.42</v>
       </c>
       <c r="C19" s="3">
         <v>37</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2103,94 +1817,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2.57</v>
       </c>
       <c r="C24" s="3">
         <v>49</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>18.4</v>
       </c>
       <c r="C25" s="3">
         <v>8</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>21.81</v>
       </c>
       <c r="C26" s="3">
         <v>25</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>7.43</v>
       </c>
       <c r="C27" s="3">
         <v>11</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>19.92</v>
       </c>
       <c r="C28" s="3">
         <v>35</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2199,98 +1913,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>23.31</v>
       </c>
       <c r="C33" s="3">
         <v>47</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>19.98</v>
       </c>
       <c r="C34" s="3">
         <v>41</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1.15</v>
       </c>
       <c r="C35" s="3">
         <v>50</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>9.82</v>
       </c>
       <c r="C36" s="3">
         <v>36</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>10.56</v>
       </c>
       <c r="C37" s="3">
         <v>34</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2313,7 +2027,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2333,90 +2047,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
@@ -2439,16 +2153,16 @@
       <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -2471,16 +2185,16 @@
       <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -2503,16 +2217,16 @@
       <c r="J14" s="3">
         <v>2</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
@@ -2535,16 +2249,16 @@
       <c r="J15" s="3">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -2567,16 +2281,16 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -2599,16 +2313,16 @@
       <c r="J17" s="3">
         <v>6</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -2631,16 +2345,16 @@
       <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
@@ -2663,40 +2377,40 @@
       <c r="J19" s="3">
         <v>6</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2729,222 +2443,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>122</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7761</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8072</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>8550</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>7694</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5015</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12256</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7191</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3297</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7">
+        <v>14661</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7">
+        <v>8111</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6554</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="7">
+        <v>13706</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>9145</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>170</v>
+      <c r="A26" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2979,86 +2687,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>175</v>
+      <c r="A1" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>192</v>
+      <c r="A15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3066,22 +2774,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1375</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1719</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3089,22 +2797,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1428</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1585</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3112,22 +2820,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1031</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1330</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3135,22 +2843,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1317</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1765</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3158,22 +2866,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>217</v>
+        <v>167</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1282</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1679</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3181,22 +2889,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1351</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1527</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3204,22 +2912,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
+      </c>
+      <c r="D22" s="7">
+        <v>556</v>
+      </c>
+      <c r="E22" s="7">
+        <v>651</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3227,22 +2935,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1326</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1618</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3250,22 +2958,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1427</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1627</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3273,22 +2981,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>243</v>
+        <v>171</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1261</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1475</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3296,22 +3004,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>246</v>
+        <v>177</v>
+      </c>
+      <c r="D26" s="7">
+        <v>917</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1073</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3319,22 +3027,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
+      </c>
+      <c r="D27" s="7">
+        <v>616</v>
+      </c>
+      <c r="E27" s="7">
+        <v>795</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3342,22 +3050,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>253</v>
+        <v>187</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1372</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1509</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3365,22 +3073,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>256</v>
+        <v>188</v>
+      </c>
+      <c r="D29" s="7">
+        <v>924</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1164</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3388,22 +3096,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>259</v>
+        <v>154</v>
+      </c>
+      <c r="D30" s="7">
+        <v>926</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1222</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3411,22 +3119,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>263</v>
+        <v>191</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1484</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1692</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3434,22 +3142,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>267</v>
+        <v>193</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1195</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1637</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3457,22 +3165,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>270</v>
+        <v>194</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1779</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3480,22 +3188,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>273</v>
+        <v>193</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1148</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1504</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3503,22 +3211,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>276</v>
+        <v>154</v>
+      </c>
+      <c r="D35" s="7">
+        <v>800</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1024</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3526,22 +3234,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>279</v>
+        <v>198</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1148</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1492</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3549,22 +3257,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>282</v>
+        <v>199</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1112</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1546</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3572,22 +3280,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>284</v>
+        <v>164</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1290</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1445</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3595,22 +3303,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>288</v>
+        <v>201</v>
+      </c>
+      <c r="D39" s="7">
+        <v>634</v>
+      </c>
+      <c r="E39" s="7">
+        <v>742</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>289</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3618,22 +3326,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>291</v>
+        <v>191</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1485</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1752</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3641,22 +3349,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>295</v>
+        <v>204</v>
+      </c>
+      <c r="D41" s="7">
+        <v>857</v>
+      </c>
+      <c r="E41" s="7">
+        <v>943</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3664,68 +3372,58 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>300</v>
+        <v>207</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1498</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1753</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>170</v>
+      <c r="A45" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>301</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>302</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>303</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>304</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>305</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_027.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_027.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>ZESTAW ZADAŃ NR 27 - CZĘŚĆ 1</t>
   </si>
@@ -61,373 +62,397 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Filip Dąbrowski</t>
-  </si>
-  <si>
-    <t>Natalia Urbaniak</t>
-  </si>
-  <si>
-    <t>Mikołaj Krawczyk</t>
-  </si>
-  <si>
-    <t>Filip Mazur</t>
+    <t>Hanna Górska</t>
+  </si>
+  <si>
+    <t>Lena Czarnecka</t>
+  </si>
+  <si>
+    <t>Jakub Krawczyk</t>
+  </si>
+  <si>
+    <t>Amelia Jaworska</t>
+  </si>
+  <si>
+    <t>Natalia Bednarska</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 27 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 27 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Piotrowski</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Urbaniak</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Mazur</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Antoni Dąbrowski</t>
+  </si>
+  <si>
+    <t>Aleksander Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Antoni Woźniak</t>
+  </si>
+  <si>
+    <t>Julia Wójcik</t>
+  </si>
+  <si>
+    <t>Emilia Czarnecka</t>
+  </si>
+  <si>
+    <t>Jan Lewandowski</t>
+  </si>
+  <si>
+    <t>Oliwia Borkowska</t>
+  </si>
+  <si>
+    <t>Maja Król</t>
+  </si>
+  <si>
+    <t>Hanna Malinowska</t>
+  </si>
+  <si>
+    <t>Wojciech Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Piotrowski</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Wojciech Piotrowski</t>
+  </si>
+  <si>
+    <t>Hanna Borkowska</t>
   </si>
   <si>
     <t>Filip Wiśniewski</t>
   </si>
   <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 27 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 27 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>Urbaniak</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Maciejewska</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Lis</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Lena Górska</t>
-  </si>
-  <si>
-    <t>04.08.1986</t>
-  </si>
-  <si>
-    <t>Jan Krawczyk</t>
-  </si>
-  <si>
-    <t>12.12.1976</t>
-  </si>
-  <si>
-    <t>Oliwia Olszewska</t>
-  </si>
-  <si>
-    <t>26.09.1988</t>
-  </si>
-  <si>
-    <t>Szymon Mazur</t>
-  </si>
-  <si>
-    <t>09.12.1983</t>
+    <t>Anna Malinowska</t>
+  </si>
+  <si>
+    <t>Natalia Król</t>
   </si>
   <si>
     <t>Jan Piotrowski</t>
   </si>
   <si>
-    <t>07.09.1988</t>
-  </si>
-  <si>
-    <t>Mikołaj Zieliński</t>
-  </si>
-  <si>
-    <t>05.10.1998</t>
-  </si>
-  <si>
-    <t>Hanna Lis</t>
-  </si>
-  <si>
-    <t>17.10.1980</t>
-  </si>
-  <si>
-    <t>Maja Wójcik</t>
-  </si>
-  <si>
-    <t>28.08.1996</t>
-  </si>
-  <si>
-    <t>Antoni Nowak</t>
-  </si>
-  <si>
-    <t>22.10.1977</t>
-  </si>
-  <si>
-    <t>Jakub Grabowski</t>
-  </si>
-  <si>
-    <t>17.07.1977</t>
-  </si>
-  <si>
-    <t>Hanna Piekarska</t>
-  </si>
-  <si>
-    <t>01.01.1991</t>
-  </si>
-  <si>
-    <t>Kacper Zieliński</t>
-  </si>
-  <si>
-    <t>26.05.1991</t>
-  </si>
-  <si>
-    <t>Wojciech Wójcik</t>
-  </si>
-  <si>
-    <t>25.09.1987</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Anna Maciejewska</t>
+  </si>
+  <si>
+    <t>Lena Sikorska</t>
+  </si>
+  <si>
+    <t>Mikołaj Wojciechowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Dąbrowski</t>
+  </si>
+  <si>
+    <t>Jakub Wiśniewski</t>
+  </si>
+  <si>
+    <t>Maja Jaworska</t>
+  </si>
+  <si>
+    <t>Aleksander Kozłowski</t>
+  </si>
+  <si>
+    <t>Anna Borkowska</t>
+  </si>
+  <si>
+    <t>Natalia Wójcik</t>
+  </si>
+  <si>
+    <t>Aleksander Wiśniewski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -481,169 +506,151 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>Drukarka laserowa</t>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
   </si>
   <si>
     <t>Anna Nowak</t>
   </si>
   <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
   </si>
   <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
+    <t>Smartwatch</t>
   </si>
   <si>
     <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -715,7 +722,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,12 +745,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -774,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -785,13 +786,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1098,7 +1098,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1203,16 +1203,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
@@ -1227,16 +1227,16 @@
         <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1248,16 +1248,16 @@
         <v>6</v>
       </c>
       <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
         <v>3</v>
       </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1266,19 +1266,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1287,19 +1287,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
         <v>5</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4</v>
       </c>
       <c r="D21" s="3">
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1308,19 +1308,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>6</v>
-      </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1329,7 +1329,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
@@ -1338,10 +1338,10 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1350,19 +1350,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
         <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3">
-        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>4</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1371,19 +1371,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
       </c>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1392,13 +1392,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
         <v>6</v>
-      </c>
-      <c r="C26" s="3">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
       </c>
       <c r="E26" s="3">
         <v>4</v>
@@ -1413,19 +1413,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
         <v>6</v>
       </c>
-      <c r="D27" s="3">
-        <v>3</v>
-      </c>
       <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
         <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1434,19 +1434,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1459,6 +1459,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1492,7 +1498,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1512,7 +1518,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1522,29 +1528,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1552,99 +1558,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.3</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>14.5</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.9</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.9</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2.7</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1.5</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3.8</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.8</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1661,10 +1667,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1677,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1702,27 +1708,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1730,85 +1736,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>10.73</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>13.88</v>
       </c>
       <c r="C15" s="3">
-        <v>19</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>28.86</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>13.46</v>
       </c>
       <c r="C16" s="3">
-        <v>50</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>20.42</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5.53</v>
       </c>
       <c r="C17" s="3">
-        <v>43</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>26.050000000000001</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>30.79</v>
       </c>
       <c r="C18" s="3">
-        <v>44</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>10.42</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>22.42</v>
       </c>
       <c r="C19" s="3">
-        <v>37</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1817,8 +1823,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1826,85 +1832,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>2.57</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>17.62</v>
       </c>
       <c r="C24" s="3">
-        <v>49</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>18.4</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4.64</v>
       </c>
       <c r="C25" s="3">
-        <v>8</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>21.81</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>13.7</v>
       </c>
       <c r="C26" s="3">
-        <v>25</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>7.43</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>17.32</v>
       </c>
       <c r="C27" s="3">
-        <v>11</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>19.92</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>17.14</v>
       </c>
       <c r="C28" s="3">
-        <v>35</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1913,8 +1919,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1922,89 +1928,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>23.31</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>19.48</v>
       </c>
       <c r="C33" s="3">
-        <v>47</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>19.98</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>27.29</v>
       </c>
       <c r="C34" s="3">
-        <v>41</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>1.15</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>8.27</v>
       </c>
       <c r="C35" s="3">
-        <v>50</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>9.82</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>11.66</v>
       </c>
       <c r="C36" s="3">
-        <v>36</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>10.56</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>14.42</v>
       </c>
       <c r="C37" s="3">
-        <v>34</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2024,10 +2038,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L21"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2047,111 +2061,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
       </c>
       <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3">
         <v>5</v>
       </c>
-      <c r="G12" s="3">
-        <v>4</v>
-      </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2159,31 +2173,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
         <v>2</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2191,28 +2205,28 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
       </c>
       <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="H14" s="3">
-        <v>5</v>
-      </c>
       <c r="I14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>2</v>
@@ -2223,31 +2237,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2255,19 +2269,19 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3">
         <v>6</v>
@@ -2276,10 +2290,10 @@
         <v>6</v>
       </c>
       <c r="I16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2287,31 +2301,31 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>6</v>
       </c>
       <c r="I17" s="3">
         <v>2</v>
       </c>
       <c r="J17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2319,28 +2333,28 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18" s="3">
         <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3">
         <v>2</v>
@@ -2349,40 +2363,24 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3">
-        <v>4</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <v>6</v>
-      </c>
-      <c r="J19" s="3">
-        <v>6</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2393,30 +2391,14 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2429,10 +2411,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A26" sqref="A26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2443,216 +2425,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>96</v>
+      <c r="A1" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="7">
-        <v>7761</v>
+      <c r="B11" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7774</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8072</v>
+      <c r="B12" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9796</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>8550</v>
+        <v>108</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8660</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>7694</v>
+        <v>109</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C14" s="8">
+        <v>14338</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>5015</v>
+        <v>110</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C15" s="8">
+        <v>8808</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="7">
-        <v>12256</v>
+        <v>111</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C16" s="8">
+        <v>11085</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7191</v>
+        <v>112</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6011</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3297</v>
+        <v>113</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C18" s="8">
+        <v>13766</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7">
-        <v>14661</v>
+        <v>114</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C19" s="8">
+        <v>14185</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7">
-        <v>8111</v>
+        <v>115</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10109</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6554</v>
+        <v>116</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9865</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7">
-        <v>13706</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="7">
-        <v>9145</v>
+        <v>117</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C22" s="8">
+        <v>7068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="17" t="s">
-        <v>131</v>
-      </c>
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2669,10 +2640,221 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:B50"/>
+      <selection activeCell="A10" sqref="A10:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="3">
+        <v>181</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3">
+        <v>110</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3">
+        <v>113</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3">
+        <v>172</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="3">
+        <v>95</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="3">
+        <v>187</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3">
+        <v>199</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="3">
+        <v>117</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="3">
+        <v>140</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="3">
+        <v>118</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="3">
+        <v>186</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="3">
+        <v>180</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3">
+        <v>135</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="3">
+        <v>159</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="3">
+        <v>100</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="3">
+        <v>164</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2687,86 +2869,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>135</v>
+      <c r="A1" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2774,22 +2956,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1375</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1719</v>
+        <v>162</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1383</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1715</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2797,22 +2979,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1428</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1585</v>
+        <v>166</v>
+      </c>
+      <c r="D17" s="8">
+        <v>636</v>
+      </c>
+      <c r="E17" s="8">
+        <v>700</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2820,22 +3002,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1031</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1330</v>
+        <v>170</v>
+      </c>
+      <c r="D18" s="8">
+        <v>949</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1091</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2843,22 +3025,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1499</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1709</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1317</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1765</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2866,22 +3048,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1282</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1679</v>
+        <v>162</v>
+      </c>
+      <c r="D20" s="8">
+        <v>842</v>
+      </c>
+      <c r="E20" s="8">
+        <v>935</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2889,22 +3071,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1351</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1527</v>
+        <v>175</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1235</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1383</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2912,22 +3094,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="7">
-        <v>556</v>
-      </c>
-      <c r="E22" s="7">
-        <v>651</v>
+        <v>179</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1149</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1333</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2935,22 +3117,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1326</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1618</v>
+        <v>182</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1041</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1312</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2958,22 +3140,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1427</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1627</v>
+        <v>179</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1632</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2981,22 +3163,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1111</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1322</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1261</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1475</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3004,22 +3186,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="7">
-        <v>917</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1073</v>
+        <v>188</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1349</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1592</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3027,22 +3209,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="7">
-        <v>616</v>
-      </c>
-      <c r="E27" s="7">
-        <v>795</v>
+        <v>189</v>
+      </c>
+      <c r="D27" s="8">
+        <v>818</v>
+      </c>
+      <c r="E27" s="8">
+        <v>941</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3050,22 +3232,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1372</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1509</v>
+        <v>191</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1470</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1896</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3073,22 +3255,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="7">
-        <v>924</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1164</v>
+        <v>192</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1098</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1230</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3096,22 +3278,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="7">
-        <v>926</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1222</v>
+        <v>193</v>
+      </c>
+      <c r="D30" s="8">
+        <v>812</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1047</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3119,22 +3301,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1484</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1692</v>
+        <v>189</v>
+      </c>
+      <c r="D31" s="8">
+        <v>866</v>
+      </c>
+      <c r="E31" s="8">
+        <v>953</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3142,22 +3324,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1195</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1637</v>
+        <v>186</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1468</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1864</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3165,22 +3347,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1390</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1779</v>
+        <v>197</v>
+      </c>
+      <c r="D33" s="8">
+        <v>796</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1043</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3188,22 +3370,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="7">
-        <v>1148</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1504</v>
+      <c r="D34" s="8">
+        <v>626</v>
+      </c>
+      <c r="E34" s="8">
+        <v>707</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3211,22 +3393,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="7">
-        <v>800</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1024</v>
+        <v>179</v>
+      </c>
+      <c r="D35" s="8">
+        <v>672</v>
+      </c>
+      <c r="E35" s="8">
+        <v>806</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3234,22 +3416,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1148</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1492</v>
+        <v>186</v>
+      </c>
+      <c r="D36" s="8">
+        <v>744</v>
+      </c>
+      <c r="E36" s="8">
+        <v>863</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3257,22 +3439,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1112</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1546</v>
+        <v>182</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1299</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1429</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3280,22 +3462,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1290</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1445</v>
+        <v>203</v>
+      </c>
+      <c r="D38" s="8">
+        <v>947</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1080</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3303,22 +3485,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="7">
-        <v>634</v>
-      </c>
-      <c r="E39" s="7">
-        <v>742</v>
+        <v>191</v>
+      </c>
+      <c r="D39" s="8">
+        <v>595</v>
+      </c>
+      <c r="E39" s="8">
+        <v>815</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3326,22 +3508,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1485</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1752</v>
+        <v>166</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1397</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1788</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3349,22 +3531,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D41" s="7">
-        <v>857</v>
-      </c>
-      <c r="E41" s="7">
-        <v>943</v>
+        <v>208</v>
+      </c>
+      <c r="D41" s="8">
+        <v>962</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1154</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3372,58 +3554,127 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1498</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1753</v>
+        <v>175</v>
+      </c>
+      <c r="D42" s="8">
+        <v>645</v>
+      </c>
+      <c r="E42" s="8">
+        <v>864</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1331</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1863</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1332</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1825</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="8">
+        <v>624</v>
+      </c>
+      <c r="E45" s="8">
+        <v>805</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>208</v>
-      </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="6"/>
-    </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48" s="6"/>
+      <c r="A48" s="16" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
         <v>212</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
